--- a/Plugin/DATACRM/hethongdaily/view/home/product/list_data_san_pham.xlsx
+++ b/Plugin/DATACRM/hethongdaily/view/home/product/list_data_san_pham.xlsx
@@ -39,7 +39,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>NTT</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Hộp</t>
   </si>
 </sst>
 </file>
@@ -615,24 +621,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="25.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,21 +651,24 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -672,527 +681,576 @@
       <c r="D2" s="16">
         <v>180000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
